--- a/進捗管理表/Shino/進捗管理表_ProjectX_篠.xlsx
+++ b/進捗管理表/Shino/進捗管理表_ProjectX_篠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72A97B1-D76C-4CB1-BA43-C75BD2269CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072E3B5-CB8A-4261-80DA-C8E4E3984AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,26 +1228,20 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,6 +1293,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,10 +1518,10 @@
   <dimension ref="A1:AL1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1617,142 +1617,142 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="96">
+      <c r="G3" s="94">
         <v>45627</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="98"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="96"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="101"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="99"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="95">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="93">
         <v>3</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="82">
         <v>4</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="82">
         <v>5</v>
       </c>
-      <c r="L5" s="90"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="82">
         <v>6</v>
       </c>
-      <c r="N5" s="90"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="82">
         <v>9</v>
       </c>
-      <c r="P5" s="90"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="82">
         <v>10</v>
       </c>
-      <c r="R5" s="90"/>
+      <c r="R5" s="88"/>
       <c r="S5" s="82">
         <v>11</v>
       </c>
-      <c r="T5" s="90"/>
+      <c r="T5" s="88"/>
       <c r="U5" s="82">
         <v>12</v>
       </c>
-      <c r="V5" s="90"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="82">
         <v>13</v>
       </c>
-      <c r="X5" s="90"/>
+      <c r="X5" s="88"/>
       <c r="Y5" s="82">
         <v>16</v>
       </c>
@@ -1784,20 +1784,20 @@
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="91" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="89" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="83"/>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="89" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="83"/>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="89" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="83"/>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="89" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="83"/>
@@ -1889,13 +1889,13 @@
       <c r="AL7" s="20"/>
     </row>
     <row r="8" spans="1:38" ht="12" customHeight="1">
-      <c r="A8" s="81">
+      <c r="A8" s="79">
         <v>1</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1">
       <c r="A9" s="80"/>
-      <c r="B9" s="85"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
@@ -1977,13 +1977,13 @@
       <c r="AL9" s="30"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
-      <c r="A10" s="81">
+      <c r="A10" s="79">
         <v>2</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="31" t="s">
@@ -2024,7 +2024,7 @@
     </row>
     <row r="11" spans="1:38" ht="12" customHeight="1">
       <c r="A11" s="80"/>
-      <c r="B11" s="85"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="80"/>
@@ -2065,13 +2065,13 @@
       <c r="AL11" s="37"/>
     </row>
     <row r="12" spans="1:38" ht="12" customHeight="1">
-      <c r="A12" s="81">
+      <c r="A12" s="79">
         <v>3</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2151,13 +2151,13 @@
       <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" ht="12" customHeight="1">
-      <c r="A14" s="81">
+      <c r="A14" s="79">
         <v>4</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
@@ -2237,13 +2237,13 @@
       <c r="AL15" s="37"/>
     </row>
     <row r="16" spans="1:38" ht="12" customHeight="1">
-      <c r="A16" s="81">
+      <c r="A16" s="79">
         <v>5</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2323,13 +2323,13 @@
       <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="1:38" ht="12" customHeight="1">
-      <c r="A18" s="81">
+      <c r="A18" s="79">
         <v>6</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="31" t="s">
         <v>13</v>
       </c>
@@ -2409,13 +2409,13 @@
       <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="1:38" ht="12" customHeight="1">
-      <c r="A20" s="81">
+      <c r="A20" s="79">
         <v>7</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2495,13 +2495,13 @@
       <c r="AL21" s="41"/>
     </row>
     <row r="22" spans="1:38" ht="12" customHeight="1">
-      <c r="A22" s="81">
+      <c r="A22" s="79">
         <v>8</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2623,17 +2623,17 @@
       <c r="AL24" s="20"/>
     </row>
     <row r="25" spans="1:38" ht="12" customHeight="1">
-      <c r="A25" s="81">
+      <c r="A25" s="79">
         <v>1</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="81" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -2715,17 +2715,17 @@
       <c r="AL26" s="30"/>
     </row>
     <row r="27" spans="1:38" ht="12" customHeight="1">
-      <c r="A27" s="81">
+      <c r="A27" s="79">
         <v>2</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="79" t="s">
+      <c r="E27" s="81" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -2807,17 +2807,17 @@
       <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" ht="12" customHeight="1">
-      <c r="A29" s="81">
+      <c r="A29" s="79">
         <v>3</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="81" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="21" t="s">
@@ -2899,17 +2899,17 @@
       <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:38" ht="12" customHeight="1">
-      <c r="A31" s="81">
+      <c r="A31" s="79">
         <v>4</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="81" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="31" t="s">
@@ -2991,17 +2991,17 @@
       <c r="AL32" s="37"/>
     </row>
     <row r="33" spans="1:38" ht="12" customHeight="1">
-      <c r="A33" s="81">
+      <c r="A33" s="79">
         <v>5</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="81" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="21" t="s">
@@ -3083,17 +3083,17 @@
       <c r="AL34" s="41"/>
     </row>
     <row r="35" spans="1:38" ht="12" customHeight="1">
-      <c r="A35" s="81">
+      <c r="A35" s="79">
         <v>6</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79" t="s">
+      <c r="C35" s="81"/>
+      <c r="D35" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="81" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -3175,17 +3175,17 @@
       <c r="AL36" s="41"/>
     </row>
     <row r="37" spans="1:38" ht="12" customHeight="1">
-      <c r="A37" s="81">
+      <c r="A37" s="79">
         <v>7</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="81" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="31" t="s">
@@ -3267,17 +3267,17 @@
       <c r="AL38" s="12"/>
     </row>
     <row r="39" spans="1:38" ht="12" customHeight="1">
-      <c r="A39" s="81">
+      <c r="A39" s="79">
         <v>8</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79" t="s">
+      <c r="C39" s="81"/>
+      <c r="D39" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="81" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="75" t="s">
@@ -3359,13 +3359,13 @@
       <c r="AL40" s="41"/>
     </row>
     <row r="41" spans="1:38" ht="12" customHeight="1">
-      <c r="A41" s="81">
+      <c r="A41" s="79">
         <v>9</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79" t="s">
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="31" t="s">
@@ -3447,13 +3447,13 @@
       <c r="AL42" s="41"/>
     </row>
     <row r="43" spans="1:38" ht="12" customHeight="1">
-      <c r="A43" s="81">
+      <c r="A43" s="79">
         <v>10</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="31" t="s">
         <v>13</v>
       </c>
@@ -3575,17 +3575,17 @@
       <c r="AL45" s="20"/>
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
-      <c r="A46" s="81">
+      <c r="A46" s="79">
         <v>1</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79" t="s">
+      <c r="D46" s="81"/>
+      <c r="E46" s="81" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="21" t="s">
@@ -3641,8 +3641,8 @@
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="47"/>
@@ -3667,17 +3667,17 @@
       <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
-      <c r="A48" s="81">
+      <c r="A48" s="79">
         <v>2</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79" t="s">
+      <c r="C48" s="81"/>
+      <c r="D48" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="79" t="s">
+      <c r="E48" s="81" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="31" t="s">
@@ -3759,13 +3759,13 @@
       <c r="AL49" s="37"/>
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
-      <c r="A50" s="81">
+      <c r="A50" s="79">
         <v>3</v>
       </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="21" t="s">
         <v>13</v>
       </c>
@@ -3845,13 +3845,13 @@
       <c r="AL51" s="30"/>
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
-      <c r="A52" s="81">
+      <c r="A52" s="79">
         <v>4</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="31" t="s">
         <v>13</v>
       </c>
@@ -3931,13 +3931,13 @@
       <c r="AL53" s="37"/>
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
-      <c r="A54" s="81">
+      <c r="A54" s="79">
         <v>5</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
       <c r="F54" s="21" t="s">
         <v>13</v>
       </c>
@@ -4017,13 +4017,13 @@
       <c r="AL55" s="41"/>
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
-      <c r="A56" s="81">
+      <c r="A56" s="79">
         <v>6</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="31" t="s">
         <v>13</v>
       </c>
@@ -4145,15 +4145,15 @@
       <c r="AL58" s="20"/>
     </row>
     <row r="59" spans="1:38" ht="12" customHeight="1">
-      <c r="A59" s="81">
+      <c r="A59" s="79">
         <v>1</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79" t="s">
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="21" t="s">
@@ -4235,15 +4235,15 @@
       <c r="AL60" s="30"/>
     </row>
     <row r="61" spans="1:38" ht="12" customHeight="1">
-      <c r="A61" s="81">
+      <c r="A61" s="79">
         <v>2</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79" t="s">
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="31" t="s">
@@ -4325,15 +4325,15 @@
       <c r="AL62" s="37"/>
     </row>
     <row r="63" spans="1:38" ht="12" customHeight="1">
-      <c r="A63" s="81">
+      <c r="A63" s="79">
         <v>3</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79" t="s">
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="21" t="s">
@@ -4415,13 +4415,13 @@
       <c r="AL64" s="30"/>
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
-      <c r="A65" s="81">
+      <c r="A65" s="79">
         <v>4</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
       <c r="F65" s="31" t="s">
         <v>13</v>
       </c>
@@ -4501,13 +4501,13 @@
       <c r="AL66" s="37"/>
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
-      <c r="A67" s="81">
+      <c r="A67" s="79">
         <v>5</v>
       </c>
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
       <c r="F67" s="21" t="s">
         <v>13</v>
       </c>
@@ -4587,13 +4587,13 @@
       <c r="AL68" s="41"/>
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
-      <c r="A69" s="81">
+      <c r="A69" s="79">
         <v>6</v>
       </c>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
       <c r="F69" s="31" t="s">
         <v>13</v>
       </c>
@@ -4715,13 +4715,13 @@
       <c r="AL71" s="20"/>
     </row>
     <row r="72" spans="1:38" ht="12" customHeight="1">
-      <c r="A72" s="81">
+      <c r="A72" s="79">
         <v>1</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
       <c r="F72" s="21" t="s">
         <v>13</v>
       </c>
@@ -4801,13 +4801,13 @@
       <c r="AL73" s="30"/>
     </row>
     <row r="74" spans="1:38" ht="12" customHeight="1">
-      <c r="A74" s="81">
+      <c r="A74" s="79">
         <v>2</v>
       </c>
-      <c r="B74" s="79"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
       <c r="F74" s="31" t="s">
         <v>13</v>
       </c>
@@ -4887,13 +4887,13 @@
       <c r="AL75" s="37"/>
     </row>
     <row r="76" spans="1:38" ht="12" customHeight="1">
-      <c r="A76" s="81">
+      <c r="A76" s="79">
         <v>3</v>
       </c>
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
       <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
@@ -4973,13 +4973,13 @@
       <c r="AL77" s="30"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
-      <c r="A78" s="81">
+      <c r="A78" s="79">
         <v>4</v>
       </c>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
       <c r="F78" s="31" t="s">
         <v>13</v>
       </c>
@@ -5059,13 +5059,13 @@
       <c r="AL79" s="37"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="81">
+      <c r="A80" s="79">
         <v>5</v>
       </c>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
       <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
@@ -5145,13 +5145,13 @@
       <c r="AL81" s="41"/>
     </row>
     <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="81">
+      <c r="A82" s="79">
         <v>6</v>
       </c>
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
       <c r="F82" s="31" t="s">
         <v>13</v>
       </c>
@@ -5271,13 +5271,13 @@
       <c r="AL84" s="20"/>
     </row>
     <row r="85" spans="1:38" ht="12" customHeight="1">
-      <c r="A85" s="81">
+      <c r="A85" s="79">
         <v>1</v>
       </c>
-      <c r="B85" s="79"/>
-      <c r="C85" s="79"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
       <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
@@ -5357,13 +5357,13 @@
       <c r="AL86" s="30"/>
     </row>
     <row r="87" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A87" s="81">
+      <c r="A87" s="79">
         <v>2</v>
       </c>
-      <c r="B87" s="79"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
       <c r="F87" s="31" t="s">
         <v>13</v>
       </c>
@@ -5443,13 +5443,13 @@
       <c r="AL88" s="37"/>
     </row>
     <row r="89" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A89" s="81">
+      <c r="A89" s="79">
         <v>3</v>
       </c>
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
@@ -5529,13 +5529,13 @@
       <c r="AL90" s="30"/>
     </row>
     <row r="91" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A91" s="81">
+      <c r="A91" s="79">
         <v>4</v>
       </c>
-      <c r="B91" s="79"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
       <c r="F91" s="31" t="s">
         <v>13</v>
       </c>
@@ -42256,6 +42256,217 @@
     </row>
   </sheetData>
   <mergeCells count="235">
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G3:AL4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -42280,217 +42491,6 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G3:AL4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Shino/進捗管理表_ProjectX_篠.xlsx
+++ b/進捗管理表/Shino/進捗管理表_ProjectX_篠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072E3B5-CB8A-4261-80DA-C8E4E3984AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B22BA-0892-4C26-9607-DF63C63E2392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,20 +1228,26 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1293,12 +1299,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,7 +1521,7 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
+      <selection pane="bottomRight" activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1617,142 +1617,142 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="94">
+      <c r="G3" s="96">
         <v>45627</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="96"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="98"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="87" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="101"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="93">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="95">
         <v>3</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="82">
         <v>4</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="82">
         <v>5</v>
       </c>
-      <c r="L5" s="88"/>
+      <c r="L5" s="90"/>
       <c r="M5" s="82">
         <v>6</v>
       </c>
-      <c r="N5" s="88"/>
+      <c r="N5" s="90"/>
       <c r="O5" s="82">
         <v>9</v>
       </c>
-      <c r="P5" s="88"/>
+      <c r="P5" s="90"/>
       <c r="Q5" s="82">
         <v>10</v>
       </c>
-      <c r="R5" s="88"/>
+      <c r="R5" s="90"/>
       <c r="S5" s="82">
         <v>11</v>
       </c>
-      <c r="T5" s="88"/>
+      <c r="T5" s="90"/>
       <c r="U5" s="82">
         <v>12</v>
       </c>
-      <c r="V5" s="88"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="82">
         <v>13</v>
       </c>
-      <c r="X5" s="88"/>
+      <c r="X5" s="90"/>
       <c r="Y5" s="82">
         <v>16</v>
       </c>
@@ -1784,20 +1784,20 @@
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="89" t="s">
+      <c r="F6" s="94"/>
+      <c r="G6" s="91" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="83"/>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="91" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="83"/>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="91" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="83"/>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="91" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="83"/>
@@ -1889,13 +1889,13 @@
       <c r="AL7" s="20"/>
     </row>
     <row r="8" spans="1:38" ht="12" customHeight="1">
-      <c r="A8" s="79">
+      <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1">
       <c r="A9" s="80"/>
-      <c r="B9" s="102"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
@@ -1977,13 +1977,13 @@
       <c r="AL9" s="30"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
-      <c r="A10" s="79">
+      <c r="A10" s="81">
         <v>2</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="31" t="s">
@@ -2024,7 +2024,7 @@
     </row>
     <row r="11" spans="1:38" ht="12" customHeight="1">
       <c r="A11" s="80"/>
-      <c r="B11" s="102"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="80"/>
@@ -2065,13 +2065,13 @@
       <c r="AL11" s="37"/>
     </row>
     <row r="12" spans="1:38" ht="12" customHeight="1">
-      <c r="A12" s="79">
+      <c r="A12" s="81">
         <v>3</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2151,13 +2151,13 @@
       <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" ht="12" customHeight="1">
-      <c r="A14" s="79">
+      <c r="A14" s="81">
         <v>4</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
@@ -2237,13 +2237,13 @@
       <c r="AL15" s="37"/>
     </row>
     <row r="16" spans="1:38" ht="12" customHeight="1">
-      <c r="A16" s="79">
+      <c r="A16" s="81">
         <v>5</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2323,13 +2323,13 @@
       <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="1:38" ht="12" customHeight="1">
-      <c r="A18" s="79">
+      <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="31" t="s">
         <v>13</v>
       </c>
@@ -2409,13 +2409,13 @@
       <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="1:38" ht="12" customHeight="1">
-      <c r="A20" s="79">
+      <c r="A20" s="81">
         <v>7</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2495,13 +2495,13 @@
       <c r="AL21" s="41"/>
     </row>
     <row r="22" spans="1:38" ht="12" customHeight="1">
-      <c r="A22" s="79">
+      <c r="A22" s="81">
         <v>8</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2623,17 +2623,17 @@
       <c r="AL24" s="20"/>
     </row>
     <row r="25" spans="1:38" ht="12" customHeight="1">
-      <c r="A25" s="79">
+      <c r="A25" s="81">
         <v>1</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -2715,17 +2715,17 @@
       <c r="AL26" s="30"/>
     </row>
     <row r="27" spans="1:38" ht="12" customHeight="1">
-      <c r="A27" s="79">
+      <c r="A27" s="81">
         <v>2</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -2807,17 +2807,17 @@
       <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" ht="12" customHeight="1">
-      <c r="A29" s="79">
+      <c r="A29" s="81">
         <v>3</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81" t="s">
+      <c r="C29" s="79"/>
+      <c r="D29" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="21" t="s">
@@ -2899,17 +2899,17 @@
       <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:38" ht="12" customHeight="1">
-      <c r="A31" s="79">
+      <c r="A31" s="81">
         <v>4</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81" t="s">
+      <c r="C31" s="79"/>
+      <c r="D31" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="31" t="s">
@@ -2991,17 +2991,17 @@
       <c r="AL32" s="37"/>
     </row>
     <row r="33" spans="1:38" ht="12" customHeight="1">
-      <c r="A33" s="79">
+      <c r="A33" s="81">
         <v>5</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="21" t="s">
@@ -3083,17 +3083,17 @@
       <c r="AL34" s="41"/>
     </row>
     <row r="35" spans="1:38" ht="12" customHeight="1">
-      <c r="A35" s="79">
+      <c r="A35" s="81">
         <v>6</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81" t="s">
+      <c r="C35" s="79"/>
+      <c r="D35" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -3175,17 +3175,17 @@
       <c r="AL36" s="41"/>
     </row>
     <row r="37" spans="1:38" ht="12" customHeight="1">
-      <c r="A37" s="79">
+      <c r="A37" s="81">
         <v>7</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81" t="s">
+      <c r="C37" s="79"/>
+      <c r="D37" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="31" t="s">
@@ -3267,17 +3267,17 @@
       <c r="AL38" s="12"/>
     </row>
     <row r="39" spans="1:38" ht="12" customHeight="1">
-      <c r="A39" s="79">
+      <c r="A39" s="81">
         <v>8</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81" t="s">
+      <c r="C39" s="79"/>
+      <c r="D39" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="79" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="75" t="s">
@@ -3359,13 +3359,13 @@
       <c r="AL40" s="41"/>
     </row>
     <row r="41" spans="1:38" ht="12" customHeight="1">
-      <c r="A41" s="79">
+      <c r="A41" s="81">
         <v>9</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81" t="s">
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="31" t="s">
@@ -3447,13 +3447,13 @@
       <c r="AL42" s="41"/>
     </row>
     <row r="43" spans="1:38" ht="12" customHeight="1">
-      <c r="A43" s="79">
+      <c r="A43" s="81">
         <v>10</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="31" t="s">
         <v>13</v>
       </c>
@@ -3575,17 +3575,17 @@
       <c r="AL45" s="20"/>
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
-      <c r="A46" s="79">
+      <c r="A46" s="81">
         <v>1</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81" t="s">
+      <c r="D46" s="79"/>
+      <c r="E46" s="79" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="21" t="s">
@@ -3643,8 +3643,8 @@
       <c r="N47" s="29"/>
       <c r="O47" s="61"/>
       <c r="P47" s="61"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
       <c r="S47" s="47"/>
       <c r="T47" s="29"/>
       <c r="U47" s="29"/>
@@ -3667,17 +3667,17 @@
       <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
-      <c r="A48" s="79">
+      <c r="A48" s="81">
         <v>2</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81" t="s">
+      <c r="C48" s="79"/>
+      <c r="D48" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="79" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="31" t="s">
@@ -3759,13 +3759,13 @@
       <c r="AL49" s="37"/>
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
-      <c r="A50" s="79">
+      <c r="A50" s="81">
         <v>3</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
       <c r="F50" s="21" t="s">
         <v>13</v>
       </c>
@@ -3845,13 +3845,13 @@
       <c r="AL51" s="30"/>
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
-      <c r="A52" s="79">
+      <c r="A52" s="81">
         <v>4</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
       <c r="F52" s="31" t="s">
         <v>13</v>
       </c>
@@ -3931,13 +3931,13 @@
       <c r="AL53" s="37"/>
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
-      <c r="A54" s="79">
+      <c r="A54" s="81">
         <v>5</v>
       </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
       <c r="F54" s="21" t="s">
         <v>13</v>
       </c>
@@ -4017,13 +4017,13 @@
       <c r="AL55" s="41"/>
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
-      <c r="A56" s="79">
+      <c r="A56" s="81">
         <v>6</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
       <c r="F56" s="31" t="s">
         <v>13</v>
       </c>
@@ -4145,15 +4145,15 @@
       <c r="AL58" s="20"/>
     </row>
     <row r="59" spans="1:38" ht="12" customHeight="1">
-      <c r="A59" s="79">
+      <c r="A59" s="81">
         <v>1</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81" t="s">
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="21" t="s">
@@ -4235,15 +4235,15 @@
       <c r="AL60" s="30"/>
     </row>
     <row r="61" spans="1:38" ht="12" customHeight="1">
-      <c r="A61" s="79">
+      <c r="A61" s="81">
         <v>2</v>
       </c>
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81" t="s">
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="31" t="s">
@@ -4325,15 +4325,15 @@
       <c r="AL62" s="37"/>
     </row>
     <row r="63" spans="1:38" ht="12" customHeight="1">
-      <c r="A63" s="79">
+      <c r="A63" s="81">
         <v>3</v>
       </c>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81" t="s">
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="21" t="s">
@@ -4415,13 +4415,13 @@
       <c r="AL64" s="30"/>
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
-      <c r="A65" s="79">
+      <c r="A65" s="81">
         <v>4</v>
       </c>
-      <c r="B65" s="81"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="31" t="s">
         <v>13</v>
       </c>
@@ -4501,13 +4501,13 @@
       <c r="AL66" s="37"/>
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
-      <c r="A67" s="79">
+      <c r="A67" s="81">
         <v>5</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
       <c r="F67" s="21" t="s">
         <v>13</v>
       </c>
@@ -4587,13 +4587,13 @@
       <c r="AL68" s="41"/>
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
-      <c r="A69" s="79">
+      <c r="A69" s="81">
         <v>6</v>
       </c>
-      <c r="B69" s="81"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
       <c r="F69" s="31" t="s">
         <v>13</v>
       </c>
@@ -4715,13 +4715,13 @@
       <c r="AL71" s="20"/>
     </row>
     <row r="72" spans="1:38" ht="12" customHeight="1">
-      <c r="A72" s="79">
+      <c r="A72" s="81">
         <v>1</v>
       </c>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="21" t="s">
         <v>13</v>
       </c>
@@ -4801,13 +4801,13 @@
       <c r="AL73" s="30"/>
     </row>
     <row r="74" spans="1:38" ht="12" customHeight="1">
-      <c r="A74" s="79">
+      <c r="A74" s="81">
         <v>2</v>
       </c>
-      <c r="B74" s="81"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
       <c r="F74" s="31" t="s">
         <v>13</v>
       </c>
@@ -4887,13 +4887,13 @@
       <c r="AL75" s="37"/>
     </row>
     <row r="76" spans="1:38" ht="12" customHeight="1">
-      <c r="A76" s="79">
+      <c r="A76" s="81">
         <v>3</v>
       </c>
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="81"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
       <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
@@ -4973,13 +4973,13 @@
       <c r="AL77" s="30"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
-      <c r="A78" s="79">
+      <c r="A78" s="81">
         <v>4</v>
       </c>
-      <c r="B78" s="81"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
       <c r="F78" s="31" t="s">
         <v>13</v>
       </c>
@@ -5059,13 +5059,13 @@
       <c r="AL79" s="37"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="79">
+      <c r="A80" s="81">
         <v>5</v>
       </c>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="81"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
       <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
@@ -5145,13 +5145,13 @@
       <c r="AL81" s="41"/>
     </row>
     <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="79">
+      <c r="A82" s="81">
         <v>6</v>
       </c>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="81"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
       <c r="F82" s="31" t="s">
         <v>13</v>
       </c>
@@ -5271,13 +5271,13 @@
       <c r="AL84" s="20"/>
     </row>
     <row r="85" spans="1:38" ht="12" customHeight="1">
-      <c r="A85" s="79">
+      <c r="A85" s="81">
         <v>1</v>
       </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
       <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
@@ -5357,13 +5357,13 @@
       <c r="AL86" s="30"/>
     </row>
     <row r="87" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A87" s="79">
+      <c r="A87" s="81">
         <v>2</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
       <c r="F87" s="31" t="s">
         <v>13</v>
       </c>
@@ -5443,13 +5443,13 @@
       <c r="AL88" s="37"/>
     </row>
     <row r="89" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A89" s="79">
+      <c r="A89" s="81">
         <v>3</v>
       </c>
-      <c r="B89" s="81"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
       <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
@@ -5529,13 +5529,13 @@
       <c r="AL90" s="30"/>
     </row>
     <row r="91" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A91" s="79">
+      <c r="A91" s="81">
         <v>4</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="81"/>
-      <c r="E91" s="81"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
       <c r="F91" s="31" t="s">
         <v>13</v>
       </c>
@@ -42256,15 +42256,208 @@
     </row>
   </sheetData>
   <mergeCells count="235">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G3:AL4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AE6:AF6"/>
@@ -42289,208 +42482,15 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G3:AL4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Shino/進捗管理表_ProjectX_篠.xlsx
+++ b/進捗管理表/Shino/進捗管理表_ProjectX_篠.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B22BA-0892-4C26-9607-DF63C63E2392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F7CED-5A44-45CC-A549-2556683C8452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小工程" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -240,6 +253,16 @@
       <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>篠</t>
+    <rPh sb="0" eb="1">
+      <t>シノ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>レビュー完了</t>
   </si>
   <si>
     <t>篠</t>
@@ -990,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1226,6 +1249,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1518,10 +1544,10 @@
   <dimension ref="A1:AL1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R47" sqref="R47"/>
+      <selection pane="bottomRight" activeCell="AA64" sqref="AA64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1617,230 +1643,230 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="96">
+      <c r="G3" s="97">
         <v>45627</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="99"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="101"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="102"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="95">
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="96">
         <v>3</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="82">
+      <c r="H5" s="84"/>
+      <c r="I5" s="83">
         <v>4</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="82">
+      <c r="J5" s="91"/>
+      <c r="K5" s="83">
         <v>5</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="82">
+      <c r="L5" s="91"/>
+      <c r="M5" s="83">
         <v>6</v>
       </c>
-      <c r="N5" s="90"/>
-      <c r="O5" s="82">
+      <c r="N5" s="91"/>
+      <c r="O5" s="83">
         <v>9</v>
       </c>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="82">
+      <c r="P5" s="91"/>
+      <c r="Q5" s="83">
         <v>10</v>
       </c>
-      <c r="R5" s="90"/>
-      <c r="S5" s="82">
+      <c r="R5" s="91"/>
+      <c r="S5" s="83">
         <v>11</v>
       </c>
-      <c r="T5" s="90"/>
-      <c r="U5" s="82">
+      <c r="T5" s="91"/>
+      <c r="U5" s="83">
         <v>12</v>
       </c>
-      <c r="V5" s="90"/>
-      <c r="W5" s="82">
+      <c r="V5" s="91"/>
+      <c r="W5" s="83">
         <v>13</v>
       </c>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="82">
+      <c r="X5" s="91"/>
+      <c r="Y5" s="83">
         <v>16</v>
       </c>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="82">
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="83">
         <v>17</v>
       </c>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="82">
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="83">
         <v>18</v>
       </c>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="82">
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="83">
         <v>19</v>
       </c>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="82">
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="83">
         <v>20</v>
       </c>
-      <c r="AH5" s="83"/>
+      <c r="AH5" s="84"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="91" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="91" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="91" t="s">
+      <c r="J6" s="84"/>
+      <c r="K6" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="91" t="s">
+      <c r="L6" s="84"/>
+      <c r="M6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="82" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="82" t="s">
+      <c r="P6" s="84"/>
+      <c r="Q6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="83"/>
-      <c r="S6" s="82" t="s">
+      <c r="R6" s="84"/>
+      <c r="S6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="83"/>
-      <c r="U6" s="82" t="s">
+      <c r="T6" s="84"/>
+      <c r="U6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="83"/>
-      <c r="W6" s="82" t="s">
+      <c r="V6" s="84"/>
+      <c r="W6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="82" t="s">
+      <c r="X6" s="84"/>
+      <c r="Y6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="82" t="s">
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="82" t="s">
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="82" t="s">
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="82" t="s">
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="83"/>
+      <c r="AH6" s="84"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
@@ -1889,13 +1915,13 @@
       <c r="AL7" s="20"/>
     </row>
     <row r="8" spans="1:38" ht="12" customHeight="1">
-      <c r="A8" s="81">
+      <c r="A8" s="82">
         <v>1</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -1935,11 +1961,11 @@
       <c r="AL8" s="26"/>
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="27" t="s">
         <v>14</v>
       </c>
@@ -1977,14 +2003,14 @@
       <c r="AL9" s="30"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
-      <c r="A10" s="81">
+      <c r="A10" s="82">
         <v>2</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79" t="s">
-        <v>21</v>
+      <c r="B10" s="85"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>13</v>
@@ -2023,11 +2049,11 @@
       <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" ht="12" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="34" t="s">
         <v>14</v>
       </c>
@@ -2065,13 +2091,13 @@
       <c r="AL11" s="37"/>
     </row>
     <row r="12" spans="1:38" ht="12" customHeight="1">
-      <c r="A12" s="81">
+      <c r="A12" s="82">
         <v>3</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2109,11 +2135,11 @@
       <c r="AL12" s="26"/>
     </row>
     <row r="13" spans="1:38" ht="12" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="38" t="s">
         <v>14</v>
       </c>
@@ -2151,13 +2177,13 @@
       <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" ht="12" customHeight="1">
-      <c r="A14" s="81">
+      <c r="A14" s="82">
         <v>4</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
@@ -2195,11 +2221,11 @@
       <c r="AL14" s="10"/>
     </row>
     <row r="15" spans="1:38" ht="12" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="34" t="s">
         <v>14</v>
       </c>
@@ -2237,13 +2263,13 @@
       <c r="AL15" s="37"/>
     </row>
     <row r="16" spans="1:38" ht="12" customHeight="1">
-      <c r="A16" s="81">
+      <c r="A16" s="82">
         <v>5</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2281,11 +2307,11 @@
       <c r="AL16" s="26"/>
     </row>
     <row r="17" spans="1:38" ht="12" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="38" t="s">
         <v>14</v>
       </c>
@@ -2323,13 +2349,13 @@
       <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="1:38" ht="12" customHeight="1">
-      <c r="A18" s="81">
+      <c r="A18" s="82">
         <v>6</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="31" t="s">
         <v>13</v>
       </c>
@@ -2367,11 +2393,11 @@
       <c r="AL18" s="10"/>
     </row>
     <row r="19" spans="1:38" ht="12" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
       <c r="F19" s="27" t="s">
         <v>14</v>
       </c>
@@ -2409,13 +2435,13 @@
       <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="1:38" ht="12" customHeight="1">
-      <c r="A20" s="81">
+      <c r="A20" s="82">
         <v>7</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2453,11 +2479,11 @@
       <c r="AL20" s="10"/>
     </row>
     <row r="21" spans="1:38" ht="12" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="27" t="s">
         <v>14</v>
       </c>
@@ -2495,13 +2521,13 @@
       <c r="AL21" s="41"/>
     </row>
     <row r="22" spans="1:38" ht="12" customHeight="1">
-      <c r="A22" s="81">
+      <c r="A22" s="82">
         <v>8</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2539,11 +2565,11 @@
       <c r="AL22" s="26"/>
     </row>
     <row r="23" spans="1:38" ht="12" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="34" t="s">
         <v>14</v>
       </c>
@@ -2623,17 +2649,17 @@
       <c r="AL24" s="20"/>
     </row>
     <row r="25" spans="1:38" ht="12" customHeight="1">
-      <c r="A25" s="81">
+      <c r="A25" s="82">
         <v>1</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79" t="s">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -2673,11 +2699,11 @@
       <c r="AL25" s="26"/>
     </row>
     <row r="26" spans="1:38" ht="12" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="27" t="s">
         <v>14</v>
       </c>
@@ -2715,17 +2741,17 @@
       <c r="AL26" s="30"/>
     </row>
     <row r="27" spans="1:38" ht="12" customHeight="1">
-      <c r="A27" s="81">
+      <c r="A27" s="82">
         <v>2</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="79" t="s">
+      <c r="E27" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -2765,11 +2791,11 @@
       <c r="AL27" s="10"/>
     </row>
     <row r="28" spans="1:38" ht="12" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="34" t="s">
         <v>14</v>
       </c>
@@ -2807,17 +2833,17 @@
       <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" ht="12" customHeight="1">
-      <c r="A29" s="81">
+      <c r="A29" s="82">
         <v>3</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79" t="s">
+      <c r="C29" s="80"/>
+      <c r="D29" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="21" t="s">
@@ -2857,11 +2883,11 @@
       <c r="AL29" s="26"/>
     </row>
     <row r="30" spans="1:38" ht="12" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="38" t="s">
         <v>14</v>
       </c>
@@ -2899,17 +2925,17 @@
       <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:38" ht="12" customHeight="1">
-      <c r="A31" s="81">
+      <c r="A31" s="82">
         <v>4</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79" t="s">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="31" t="s">
@@ -2949,11 +2975,11 @@
       <c r="AL31" s="10"/>
     </row>
     <row r="32" spans="1:38" ht="12" customHeight="1">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="34" t="s">
         <v>14</v>
       </c>
@@ -2991,17 +3017,17 @@
       <c r="AL32" s="37"/>
     </row>
     <row r="33" spans="1:38" ht="12" customHeight="1">
-      <c r="A33" s="81">
+      <c r="A33" s="82">
         <v>5</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79" t="s">
+      <c r="C33" s="80"/>
+      <c r="D33" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="21" t="s">
@@ -3041,11 +3067,11 @@
       <c r="AL33" s="26"/>
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="38" t="s">
         <v>14</v>
       </c>
@@ -3083,17 +3109,17 @@
       <c r="AL34" s="41"/>
     </row>
     <row r="35" spans="1:38" ht="12" customHeight="1">
-      <c r="A35" s="81">
+      <c r="A35" s="82">
         <v>6</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -3133,11 +3159,11 @@
       <c r="AL35" s="26"/>
     </row>
     <row r="36" spans="1:38" ht="12" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="38" t="s">
         <v>14</v>
       </c>
@@ -3175,17 +3201,17 @@
       <c r="AL36" s="41"/>
     </row>
     <row r="37" spans="1:38" ht="12" customHeight="1">
-      <c r="A37" s="81">
+      <c r="A37" s="82">
         <v>7</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="31" t="s">
@@ -3225,11 +3251,11 @@
       <c r="AL37" s="10"/>
     </row>
     <row r="38" spans="1:38" ht="12" customHeight="1">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="34" t="s">
         <v>14</v>
       </c>
@@ -3267,17 +3293,17 @@
       <c r="AL38" s="12"/>
     </row>
     <row r="39" spans="1:38" ht="12" customHeight="1">
-      <c r="A39" s="81">
+      <c r="A39" s="82">
         <v>8</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="80" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="75" t="s">
@@ -3317,11 +3343,11 @@
       <c r="AL39" s="26"/>
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="76" t="s">
         <v>14</v>
       </c>
@@ -3359,13 +3385,13 @@
       <c r="AL40" s="41"/>
     </row>
     <row r="41" spans="1:38" ht="12" customHeight="1">
-      <c r="A41" s="81">
+      <c r="A41" s="82">
         <v>9</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79" t="s">
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="31" t="s">
@@ -3405,11 +3431,11 @@
       <c r="AL41" s="26"/>
     </row>
     <row r="42" spans="1:38" ht="12" customHeight="1">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="34" t="s">
         <v>14</v>
       </c>
@@ -3447,13 +3473,13 @@
       <c r="AL42" s="41"/>
     </row>
     <row r="43" spans="1:38" ht="12" customHeight="1">
-      <c r="A43" s="81">
+      <c r="A43" s="82">
         <v>10</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="31" t="s">
         <v>13</v>
       </c>
@@ -3491,11 +3517,11 @@
       <c r="AL43" s="10"/>
     </row>
     <row r="44" spans="1:38" ht="12" customHeight="1">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="34" t="s">
         <v>14</v>
       </c>
@@ -3575,18 +3601,20 @@
       <c r="AL45" s="20"/>
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
-      <c r="A46" s="81">
+      <c r="A46" s="82">
         <v>1</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79" t="s">
-        <v>19</v>
+      <c r="D46" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="80" t="s">
+        <v>41</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>13</v>
@@ -3625,11 +3653,11 @@
       <c r="AL46" s="26"/>
     </row>
     <row r="47" spans="1:38" ht="12" customHeight="1">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
       <c r="F47" s="27" t="s">
         <v>14</v>
       </c>
@@ -3645,14 +3673,14 @@
       <c r="P47" s="61"/>
       <c r="Q47" s="61"/>
       <c r="R47" s="61"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
       <c r="AA47" s="29"/>
       <c r="AB47" s="29"/>
       <c r="AC47" s="29"/>
@@ -3667,18 +3695,18 @@
       <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
-      <c r="A48" s="81">
+      <c r="A48" s="82">
         <v>2</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79" t="s">
+      <c r="C48" s="80"/>
+      <c r="D48" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="79" t="s">
-        <v>19</v>
+      <c r="E48" s="80" t="s">
+        <v>41</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>13</v>
@@ -3717,11 +3745,11 @@
       <c r="AL48" s="10"/>
     </row>
     <row r="49" spans="1:38" ht="12" customHeight="1">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
       <c r="F49" s="34" t="s">
         <v>14</v>
       </c>
@@ -3744,7 +3772,7 @@
       <c r="W49" s="36"/>
       <c r="X49" s="36"/>
       <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
+      <c r="Z49" s="62"/>
       <c r="AA49" s="36"/>
       <c r="AB49" s="36"/>
       <c r="AC49" s="36"/>
@@ -3759,13 +3787,13 @@
       <c r="AL49" s="37"/>
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
-      <c r="A50" s="81">
+      <c r="A50" s="82">
         <v>3</v>
       </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="21" t="s">
         <v>13</v>
       </c>
@@ -3803,11 +3831,11 @@
       <c r="AL50" s="26"/>
     </row>
     <row r="51" spans="1:38" ht="12" customHeight="1">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="38" t="s">
         <v>14</v>
       </c>
@@ -3845,13 +3873,13 @@
       <c r="AL51" s="30"/>
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
-      <c r="A52" s="81">
+      <c r="A52" s="82">
         <v>4</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
       <c r="F52" s="31" t="s">
         <v>13</v>
       </c>
@@ -3889,11 +3917,11 @@
       <c r="AL52" s="10"/>
     </row>
     <row r="53" spans="1:38" ht="12" customHeight="1">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
       <c r="F53" s="34" t="s">
         <v>14</v>
       </c>
@@ -3931,13 +3959,13 @@
       <c r="AL53" s="37"/>
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
-      <c r="A54" s="81">
+      <c r="A54" s="82">
         <v>5</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="21" t="s">
         <v>13</v>
       </c>
@@ -3975,11 +4003,11 @@
       <c r="AL54" s="26"/>
     </row>
     <row r="55" spans="1:38" ht="12" customHeight="1">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="38" t="s">
         <v>14</v>
       </c>
@@ -4017,13 +4045,13 @@
       <c r="AL55" s="41"/>
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
-      <c r="A56" s="81">
+      <c r="A56" s="82">
         <v>6</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="31" t="s">
         <v>13</v>
       </c>
@@ -4061,11 +4089,11 @@
       <c r="AL56" s="10"/>
     </row>
     <row r="57" spans="1:38" ht="12" customHeight="1">
-      <c r="A57" s="80"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="34" t="s">
         <v>14</v>
       </c>
@@ -4145,15 +4173,17 @@
       <c r="AL58" s="20"/>
     </row>
     <row r="59" spans="1:38" ht="12" customHeight="1">
-      <c r="A59" s="81">
+      <c r="A59" s="82">
         <v>1</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79" t="s">
+      <c r="C59" s="80"/>
+      <c r="D59" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="80" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="21" t="s">
@@ -4193,11 +4223,11 @@
       <c r="AL59" s="26"/>
     </row>
     <row r="60" spans="1:38" ht="12" customHeight="1">
-      <c r="A60" s="80"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
       <c r="F60" s="27" t="s">
         <v>14</v>
       </c>
@@ -4221,8 +4251,8 @@
       <c r="X60" s="29"/>
       <c r="Y60" s="29"/>
       <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
+      <c r="AA60" s="61"/>
+      <c r="AB60" s="61"/>
       <c r="AC60" s="29"/>
       <c r="AD60" s="29"/>
       <c r="AE60" s="29"/>
@@ -4235,15 +4265,17 @@
       <c r="AL60" s="30"/>
     </row>
     <row r="61" spans="1:38" ht="12" customHeight="1">
-      <c r="A61" s="81">
+      <c r="A61" s="82">
         <v>2</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79" t="s">
+      <c r="C61" s="80"/>
+      <c r="D61" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="80" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="31" t="s">
@@ -4283,11 +4315,11 @@
       <c r="AL61" s="10"/>
     </row>
     <row r="62" spans="1:38" ht="12" customHeight="1">
-      <c r="A62" s="80"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
       <c r="F62" s="34" t="s">
         <v>14</v>
       </c>
@@ -4325,15 +4357,17 @@
       <c r="AL62" s="37"/>
     </row>
     <row r="63" spans="1:38" ht="12" customHeight="1">
-      <c r="A63" s="81">
+      <c r="A63" s="82">
         <v>3</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79" t="s">
+      <c r="C63" s="80"/>
+      <c r="D63" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="80" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="21" t="s">
@@ -4373,11 +4407,11 @@
       <c r="AL63" s="26"/>
     </row>
     <row r="64" spans="1:38" ht="12" customHeight="1">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
+      <c r="A64" s="81"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="38" t="s">
         <v>14</v>
       </c>
@@ -4415,13 +4449,13 @@
       <c r="AL64" s="30"/>
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
-      <c r="A65" s="81">
+      <c r="A65" s="82">
         <v>4</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="31" t="s">
         <v>13</v>
       </c>
@@ -4459,11 +4493,11 @@
       <c r="AL65" s="10"/>
     </row>
     <row r="66" spans="1:38" ht="12" customHeight="1">
-      <c r="A66" s="80"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
       <c r="F66" s="34" t="s">
         <v>14</v>
       </c>
@@ -4501,13 +4535,13 @@
       <c r="AL66" s="37"/>
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
-      <c r="A67" s="81">
+      <c r="A67" s="82">
         <v>5</v>
       </c>
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
       <c r="F67" s="21" t="s">
         <v>13</v>
       </c>
@@ -4545,11 +4579,11 @@
       <c r="AL67" s="26"/>
     </row>
     <row r="68" spans="1:38" ht="12" customHeight="1">
-      <c r="A68" s="80"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
+      <c r="A68" s="81"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
       <c r="F68" s="38" t="s">
         <v>14</v>
       </c>
@@ -4587,13 +4621,13 @@
       <c r="AL68" s="41"/>
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
-      <c r="A69" s="81">
+      <c r="A69" s="82">
         <v>6</v>
       </c>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
       <c r="F69" s="31" t="s">
         <v>13</v>
       </c>
@@ -4631,11 +4665,11 @@
       <c r="AL69" s="10"/>
     </row>
     <row r="70" spans="1:38" ht="12" customHeight="1">
-      <c r="A70" s="80"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
       <c r="F70" s="34" t="s">
         <v>14</v>
       </c>
@@ -4715,13 +4749,13 @@
       <c r="AL71" s="20"/>
     </row>
     <row r="72" spans="1:38" ht="12" customHeight="1">
-      <c r="A72" s="81">
+      <c r="A72" s="82">
         <v>1</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
       <c r="F72" s="21" t="s">
         <v>13</v>
       </c>
@@ -4759,11 +4793,11 @@
       <c r="AL72" s="26"/>
     </row>
     <row r="73" spans="1:38" ht="12" customHeight="1">
-      <c r="A73" s="80"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
       <c r="F73" s="27" t="s">
         <v>14</v>
       </c>
@@ -4801,13 +4835,13 @@
       <c r="AL73" s="30"/>
     </row>
     <row r="74" spans="1:38" ht="12" customHeight="1">
-      <c r="A74" s="81">
+      <c r="A74" s="82">
         <v>2</v>
       </c>
-      <c r="B74" s="79"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
       <c r="F74" s="31" t="s">
         <v>13</v>
       </c>
@@ -4845,11 +4879,11 @@
       <c r="AL74" s="10"/>
     </row>
     <row r="75" spans="1:38" ht="12" customHeight="1">
-      <c r="A75" s="80"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
       <c r="F75" s="34" t="s">
         <v>14</v>
       </c>
@@ -4887,13 +4921,13 @@
       <c r="AL75" s="37"/>
     </row>
     <row r="76" spans="1:38" ht="12" customHeight="1">
-      <c r="A76" s="81">
+      <c r="A76" s="82">
         <v>3</v>
       </c>
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
       <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
@@ -4931,11 +4965,11 @@
       <c r="AL76" s="26"/>
     </row>
     <row r="77" spans="1:38" ht="12" customHeight="1">
-      <c r="A77" s="80"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
       <c r="F77" s="38" t="s">
         <v>14</v>
       </c>
@@ -4973,13 +5007,13 @@
       <c r="AL77" s="30"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
-      <c r="A78" s="81">
+      <c r="A78" s="82">
         <v>4</v>
       </c>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
       <c r="F78" s="31" t="s">
         <v>13</v>
       </c>
@@ -5017,11 +5051,11 @@
       <c r="AL78" s="10"/>
     </row>
     <row r="79" spans="1:38" ht="12" customHeight="1">
-      <c r="A79" s="80"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
       <c r="F79" s="34" t="s">
         <v>14</v>
       </c>
@@ -5059,13 +5093,13 @@
       <c r="AL79" s="37"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="81">
+      <c r="A80" s="82">
         <v>5</v>
       </c>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
       <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
@@ -5103,11 +5137,11 @@
       <c r="AL80" s="26"/>
     </row>
     <row r="81" spans="1:38" ht="12" customHeight="1">
-      <c r="A81" s="80"/>
-      <c r="B81" s="80"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
       <c r="F81" s="38" t="s">
         <v>14</v>
       </c>
@@ -5145,13 +5179,13 @@
       <c r="AL81" s="41"/>
     </row>
     <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="81">
+      <c r="A82" s="82">
         <v>6</v>
       </c>
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
       <c r="F82" s="31" t="s">
         <v>13</v>
       </c>
@@ -5189,11 +5223,11 @@
       <c r="AL82" s="10"/>
     </row>
     <row r="83" spans="1:38" ht="12" customHeight="1">
-      <c r="A83" s="80"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
+      <c r="A83" s="81"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
       <c r="F83" s="34" t="s">
         <v>14</v>
       </c>
@@ -5271,13 +5305,13 @@
       <c r="AL84" s="20"/>
     </row>
     <row r="85" spans="1:38" ht="12" customHeight="1">
-      <c r="A85" s="81">
+      <c r="A85" s="82">
         <v>1</v>
       </c>
-      <c r="B85" s="79"/>
-      <c r="C85" s="79"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
       <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
@@ -5315,11 +5349,11 @@
       <c r="AL85" s="26"/>
     </row>
     <row r="86" spans="1:38" ht="12" customHeight="1">
-      <c r="A86" s="80"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
+      <c r="A86" s="81"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
       <c r="F86" s="27" t="s">
         <v>14</v>
       </c>
@@ -5357,13 +5391,13 @@
       <c r="AL86" s="30"/>
     </row>
     <row r="87" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A87" s="81">
+      <c r="A87" s="82">
         <v>2</v>
       </c>
-      <c r="B87" s="79"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
       <c r="F87" s="31" t="s">
         <v>13</v>
       </c>
@@ -5401,11 +5435,11 @@
       <c r="AL87" s="10"/>
     </row>
     <row r="88" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A88" s="80"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
+      <c r="A88" s="81"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
       <c r="F88" s="34" t="s">
         <v>14</v>
       </c>
@@ -5443,13 +5477,13 @@
       <c r="AL88" s="37"/>
     </row>
     <row r="89" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A89" s="81">
+      <c r="A89" s="82">
         <v>3</v>
       </c>
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
       <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
@@ -5487,11 +5521,11 @@
       <c r="AL89" s="26"/>
     </row>
     <row r="90" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A90" s="80"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
+      <c r="A90" s="81"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
       <c r="F90" s="38" t="s">
         <v>14</v>
       </c>
@@ -5529,13 +5563,13 @@
       <c r="AL90" s="30"/>
     </row>
     <row r="91" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A91" s="81">
+      <c r="A91" s="82">
         <v>4</v>
       </c>
-      <c r="B91" s="79"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
       <c r="F91" s="31" t="s">
         <v>13</v>
       </c>
@@ -5573,11 +5607,11 @@
       <c r="AL91" s="10"/>
     </row>
     <row r="92" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A92" s="80"/>
-      <c r="B92" s="80"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
+      <c r="A92" s="81"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
       <c r="F92" s="38" t="s">
         <v>14</v>
       </c>

--- a/進捗管理表/Shino/進捗管理表_ProjectX_篠.xlsx
+++ b/進捗管理表/Shino/進捗管理表_ProjectX_篠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F7CED-5A44-45CC-A549-2556683C8452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE468942-134E-4221-9D08-972617B38623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -103,9 +103,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>作成中</t>
-  </si>
-  <si>
     <t>ユースケース記述</t>
     <rPh sb="6" eb="8">
       <t>キジュツ</t>
@@ -164,19 +161,6 @@
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>仕様書作成</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -268,6 +252,22 @@
     <t>篠</t>
     <rPh sb="0" eb="1">
       <t>シノ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書作成</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1254,26 +1254,20 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,6 +1319,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1544,16 +1544,16 @@
   <dimension ref="A1:AL1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AA64" sqref="AA64"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
     <col min="3" max="3" width="6.1796875" customWidth="1"/>
     <col min="4" max="5" width="9.54296875" customWidth="1"/>
     <col min="6" max="6" width="5.1796875" customWidth="1"/>
@@ -1643,142 +1643,142 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="97">
+      <c r="G3" s="95">
         <v>45627</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="99"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="97"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="90" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="102"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="100"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="96">
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="94">
         <v>3</v>
       </c>
       <c r="H5" s="84"/>
       <c r="I5" s="83">
         <v>4</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="83">
         <v>5</v>
       </c>
-      <c r="L5" s="91"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="83">
         <v>6</v>
       </c>
-      <c r="N5" s="91"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="83">
         <v>9</v>
       </c>
-      <c r="P5" s="91"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="83">
         <v>10</v>
       </c>
-      <c r="R5" s="91"/>
+      <c r="R5" s="89"/>
       <c r="S5" s="83">
         <v>11</v>
       </c>
-      <c r="T5" s="91"/>
+      <c r="T5" s="89"/>
       <c r="U5" s="83">
         <v>12</v>
       </c>
-      <c r="V5" s="91"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="83">
         <v>13</v>
       </c>
-      <c r="X5" s="91"/>
+      <c r="X5" s="89"/>
       <c r="Y5" s="83">
         <v>16</v>
       </c>
@@ -1810,20 +1810,20 @@
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="92" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="90" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="90" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="84"/>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="90" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="84"/>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="90" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="84"/>
@@ -1915,13 +1915,13 @@
       <c r="AL7" s="20"/>
     </row>
     <row r="8" spans="1:38" ht="12" customHeight="1">
-      <c r="A8" s="82">
+      <c r="A8" s="80">
         <v>1</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1">
       <c r="A9" s="81"/>
-      <c r="B9" s="86"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
@@ -2003,13 +2003,13 @@
       <c r="AL9" s="30"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
-      <c r="A10" s="82">
+      <c r="A10" s="80">
         <v>2</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="31" t="s">
@@ -2050,7 +2050,7 @@
     </row>
     <row r="11" spans="1:38" ht="12" customHeight="1">
       <c r="A11" s="81"/>
-      <c r="B11" s="86"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
@@ -2091,13 +2091,13 @@
       <c r="AL11" s="37"/>
     </row>
     <row r="12" spans="1:38" ht="12" customHeight="1">
-      <c r="A12" s="82">
+      <c r="A12" s="80">
         <v>3</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2177,13 +2177,13 @@
       <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" ht="12" customHeight="1">
-      <c r="A14" s="82">
+      <c r="A14" s="80">
         <v>4</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
@@ -2263,13 +2263,13 @@
       <c r="AL15" s="37"/>
     </row>
     <row r="16" spans="1:38" ht="12" customHeight="1">
-      <c r="A16" s="82">
+      <c r="A16" s="80">
         <v>5</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2349,13 +2349,13 @@
       <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="1:38" ht="12" customHeight="1">
-      <c r="A18" s="82">
+      <c r="A18" s="80">
         <v>6</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="31" t="s">
         <v>13</v>
       </c>
@@ -2435,13 +2435,13 @@
       <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="1:38" ht="12" customHeight="1">
-      <c r="A20" s="82">
+      <c r="A20" s="80">
         <v>7</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2521,13 +2521,13 @@
       <c r="AL21" s="41"/>
     </row>
     <row r="22" spans="1:38" ht="12" customHeight="1">
-      <c r="A22" s="82">
+      <c r="A22" s="80">
         <v>8</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2649,18 +2649,18 @@
       <c r="AL24" s="20"/>
     </row>
     <row r="25" spans="1:38" ht="12" customHeight="1">
-      <c r="A25" s="82">
+      <c r="A25" s="80">
         <v>1</v>
       </c>
-      <c r="B25" s="80" t="s">
-        <v>22</v>
+      <c r="B25" s="82" t="s">
+        <v>21</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80" t="s">
+      <c r="C25" s="82"/>
+      <c r="D25" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="80" t="s">
-        <v>31</v>
+      <c r="E25" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>13</v>
@@ -2741,18 +2741,18 @@
       <c r="AL26" s="30"/>
     </row>
     <row r="27" spans="1:38" ht="12" customHeight="1">
-      <c r="A27" s="82">
+      <c r="A27" s="80">
         <v>2</v>
       </c>
-      <c r="B27" s="80" t="s">
-        <v>23</v>
+      <c r="B27" s="82" t="s">
+        <v>22</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80" t="s">
-        <v>25</v>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82" t="s">
+        <v>24</v>
       </c>
-      <c r="E27" s="80" t="s">
-        <v>31</v>
+      <c r="E27" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>13</v>
@@ -2833,18 +2833,18 @@
       <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" ht="12" customHeight="1">
-      <c r="A29" s="82">
+      <c r="A29" s="80">
         <v>3</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="80" t="s">
-        <v>31</v>
+      <c r="E29" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>13</v>
@@ -2925,18 +2925,18 @@
       <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:38" ht="12" customHeight="1">
-      <c r="A31" s="82">
+      <c r="A31" s="80">
         <v>4</v>
       </c>
-      <c r="B31" s="80" t="s">
-        <v>32</v>
+      <c r="B31" s="82" t="s">
+        <v>30</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80" t="s">
-        <v>33</v>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82" t="s">
+        <v>31</v>
       </c>
-      <c r="E31" s="80" t="s">
-        <v>31</v>
+      <c r="E31" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>13</v>
@@ -3017,18 +3017,18 @@
       <c r="AL32" s="37"/>
     </row>
     <row r="33" spans="1:38" ht="12" customHeight="1">
-      <c r="A33" s="82">
+      <c r="A33" s="80">
         <v>5</v>
       </c>
-      <c r="B33" s="80" t="s">
-        <v>34</v>
+      <c r="B33" s="82" t="s">
+        <v>32</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80" t="s">
-        <v>33</v>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82" t="s">
+        <v>31</v>
       </c>
-      <c r="E33" s="80" t="s">
-        <v>31</v>
+      <c r="E33" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>13</v>
@@ -3109,18 +3109,18 @@
       <c r="AL34" s="41"/>
     </row>
     <row r="35" spans="1:38" ht="12" customHeight="1">
-      <c r="A35" s="82">
+      <c r="A35" s="80">
         <v>6</v>
       </c>
-      <c r="B35" s="80" t="s">
-        <v>35</v>
+      <c r="B35" s="82" t="s">
+        <v>33</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80" t="s">
+      <c r="C35" s="82"/>
+      <c r="D35" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="80" t="s">
-        <v>31</v>
+      <c r="E35" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>13</v>
@@ -3201,18 +3201,18 @@
       <c r="AL36" s="41"/>
     </row>
     <row r="37" spans="1:38" ht="12" customHeight="1">
-      <c r="A37" s="82">
+      <c r="A37" s="80">
         <v>7</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="80" t="s">
-        <v>31</v>
+      <c r="E37" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>13</v>
@@ -3293,18 +3293,18 @@
       <c r="AL38" s="12"/>
     </row>
     <row r="39" spans="1:38" ht="12" customHeight="1">
-      <c r="A39" s="82">
+      <c r="A39" s="80">
         <v>8</v>
       </c>
-      <c r="B39" s="80" t="s">
-        <v>37</v>
+      <c r="B39" s="82" t="s">
+        <v>35</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80" t="s">
-        <v>38</v>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82" t="s">
+        <v>36</v>
       </c>
-      <c r="E39" s="80" t="s">
-        <v>31</v>
+      <c r="E39" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F39" s="75" t="s">
         <v>13</v>
@@ -3385,13 +3385,13 @@
       <c r="AL40" s="41"/>
     </row>
     <row r="41" spans="1:38" ht="12" customHeight="1">
-      <c r="A41" s="82">
+      <c r="A41" s="80">
         <v>9</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80" t="s">
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="31" t="s">
@@ -3473,13 +3473,13 @@
       <c r="AL42" s="41"/>
     </row>
     <row r="43" spans="1:38" ht="12" customHeight="1">
-      <c r="A43" s="82">
+      <c r="A43" s="80">
         <v>10</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
       <c r="F43" s="31" t="s">
         <v>13</v>
       </c>
@@ -3601,20 +3601,20 @@
       <c r="AL45" s="20"/>
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
-      <c r="A46" s="82">
+      <c r="A46" s="80">
         <v>1</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="80" t="s">
-        <v>27</v>
+      <c r="D46" s="82" t="s">
+        <v>40</v>
       </c>
-      <c r="D46" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="80" t="s">
-        <v>41</v>
+      <c r="E46" s="82" t="s">
+        <v>39</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>13</v>
@@ -3695,18 +3695,18 @@
       <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
-      <c r="A48" s="82">
+      <c r="A48" s="80">
         <v>2</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="82" t="s">
         <v>39</v>
-      </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="80" t="s">
-        <v>41</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>13</v>
@@ -3787,13 +3787,13 @@
       <c r="AL49" s="37"/>
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
-      <c r="A50" s="82">
+      <c r="A50" s="80">
         <v>3</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="21" t="s">
         <v>13</v>
       </c>
@@ -3873,13 +3873,13 @@
       <c r="AL51" s="30"/>
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
-      <c r="A52" s="82">
+      <c r="A52" s="80">
         <v>4</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="31" t="s">
         <v>13</v>
       </c>
@@ -3959,13 +3959,13 @@
       <c r="AL53" s="37"/>
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
-      <c r="A54" s="82">
+      <c r="A54" s="80">
         <v>5</v>
       </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="21" t="s">
         <v>13</v>
       </c>
@@ -4045,13 +4045,13 @@
       <c r="AL55" s="41"/>
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
-      <c r="A56" s="82">
+      <c r="A56" s="80">
         <v>6</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="31" t="s">
         <v>13</v>
       </c>
@@ -4173,18 +4173,18 @@
       <c r="AL58" s="20"/>
     </row>
     <row r="59" spans="1:38" ht="12" customHeight="1">
-      <c r="A59" s="82">
+      <c r="A59" s="80">
         <v>1</v>
       </c>
-      <c r="B59" s="80" t="s">
-        <v>30</v>
+      <c r="B59" s="82" t="s">
+        <v>41</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80" t="s">
-        <v>42</v>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82" t="s">
+        <v>40</v>
       </c>
-      <c r="E59" s="80" t="s">
-        <v>21</v>
+      <c r="E59" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>13</v>
@@ -4265,18 +4265,18 @@
       <c r="AL60" s="30"/>
     </row>
     <row r="61" spans="1:38" ht="12" customHeight="1">
-      <c r="A61" s="82">
+      <c r="A61" s="80">
         <v>2</v>
       </c>
-      <c r="B61" s="80" t="s">
-        <v>28</v>
+      <c r="B61" s="82" t="s">
+        <v>27</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80" t="s">
-        <v>42</v>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82" t="s">
+        <v>40</v>
       </c>
-      <c r="E61" s="80" t="s">
-        <v>21</v>
+      <c r="E61" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>13</v>
@@ -4345,10 +4345,10 @@
       <c r="Z62" s="36"/>
       <c r="AA62" s="36"/>
       <c r="AB62" s="36"/>
-      <c r="AC62" s="36"/>
-      <c r="AD62" s="36"/>
-      <c r="AE62" s="36"/>
-      <c r="AF62" s="36"/>
+      <c r="AC62" s="62"/>
+      <c r="AD62" s="62"/>
+      <c r="AE62" s="62"/>
+      <c r="AF62" s="62"/>
       <c r="AG62" s="36"/>
       <c r="AH62" s="36"/>
       <c r="AI62" s="37"/>
@@ -4357,18 +4357,18 @@
       <c r="AL62" s="37"/>
     </row>
     <row r="63" spans="1:38" ht="12" customHeight="1">
-      <c r="A63" s="82">
+      <c r="A63" s="80">
         <v>3</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="80" t="s">
-        <v>21</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>13</v>
@@ -4441,7 +4441,7 @@
       <c r="AD64" s="40"/>
       <c r="AE64" s="40"/>
       <c r="AF64" s="40"/>
-      <c r="AG64" s="40"/>
+      <c r="AG64" s="67"/>
       <c r="AH64" s="40"/>
       <c r="AI64" s="30"/>
       <c r="AJ64" s="30"/>
@@ -4449,13 +4449,13 @@
       <c r="AL64" s="30"/>
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
-      <c r="A65" s="82">
+      <c r="A65" s="80">
         <v>4</v>
       </c>
-      <c r="B65" s="80"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="31" t="s">
         <v>13</v>
       </c>
@@ -4535,13 +4535,13 @@
       <c r="AL66" s="37"/>
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
-      <c r="A67" s="82">
+      <c r="A67" s="80">
         <v>5</v>
       </c>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
       <c r="F67" s="21" t="s">
         <v>13</v>
       </c>
@@ -4621,13 +4621,13 @@
       <c r="AL68" s="41"/>
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
-      <c r="A69" s="82">
+      <c r="A69" s="80">
         <v>6</v>
       </c>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
       <c r="F69" s="31" t="s">
         <v>13</v>
       </c>
@@ -4749,13 +4749,13 @@
       <c r="AL71" s="20"/>
     </row>
     <row r="72" spans="1:38" ht="12" customHeight="1">
-      <c r="A72" s="82">
+      <c r="A72" s="80">
         <v>1</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
       <c r="F72" s="21" t="s">
         <v>13</v>
       </c>
@@ -4835,13 +4835,13 @@
       <c r="AL73" s="30"/>
     </row>
     <row r="74" spans="1:38" ht="12" customHeight="1">
-      <c r="A74" s="82">
+      <c r="A74" s="80">
         <v>2</v>
       </c>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
       <c r="F74" s="31" t="s">
         <v>13</v>
       </c>
@@ -4921,13 +4921,13 @@
       <c r="AL75" s="37"/>
     </row>
     <row r="76" spans="1:38" ht="12" customHeight="1">
-      <c r="A76" s="82">
+      <c r="A76" s="80">
         <v>3</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
       <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
@@ -5007,13 +5007,13 @@
       <c r="AL77" s="30"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
-      <c r="A78" s="82">
+      <c r="A78" s="80">
         <v>4</v>
       </c>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
       <c r="F78" s="31" t="s">
         <v>13</v>
       </c>
@@ -5093,13 +5093,13 @@
       <c r="AL79" s="37"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="82">
+      <c r="A80" s="80">
         <v>5</v>
       </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="80"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
       <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
@@ -5179,13 +5179,13 @@
       <c r="AL81" s="41"/>
     </row>
     <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="82">
+      <c r="A82" s="80">
         <v>6</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="82"/>
       <c r="F82" s="31" t="s">
         <v>13</v>
       </c>
@@ -5305,13 +5305,13 @@
       <c r="AL84" s="20"/>
     </row>
     <row r="85" spans="1:38" ht="12" customHeight="1">
-      <c r="A85" s="82">
+      <c r="A85" s="80">
         <v>1</v>
       </c>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="82"/>
+      <c r="D85" s="82"/>
+      <c r="E85" s="82"/>
       <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
@@ -5391,13 +5391,13 @@
       <c r="AL86" s="30"/>
     </row>
     <row r="87" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A87" s="82">
+      <c r="A87" s="80">
         <v>2</v>
       </c>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
       <c r="F87" s="31" t="s">
         <v>13</v>
       </c>
@@ -5477,13 +5477,13 @@
       <c r="AL88" s="37"/>
     </row>
     <row r="89" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A89" s="82">
+      <c r="A89" s="80">
         <v>3</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="82"/>
       <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
@@ -5563,13 +5563,13 @@
       <c r="AL90" s="30"/>
     </row>
     <row r="91" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A91" s="82">
+      <c r="A91" s="80">
         <v>4</v>
       </c>
-      <c r="B91" s="80"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
       <c r="F91" s="31" t="s">
         <v>13</v>
       </c>
@@ -42290,6 +42290,217 @@
     </row>
   </sheetData>
   <mergeCells count="235">
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G3:AL4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -42314,217 +42525,6 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G3:AL4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
